--- a/src/assessment_client/examples/stat_logic_example.xlsx
+++ b/src/assessment_client/examples/stat_logic_example.xlsx
@@ -295,7 +295,7 @@
 Опишите, пожалуйста, почему вы выбрали этот вариант (2–4 предложения) и как планируете действовать?</t>
   </si>
   <si>
-    <t>Стремление к признанию, статусу и престижу</t>
+    <t>Стремление к признанию статусу и престижу</t>
   </si>
   <si>
     <t xml:space="preserve">амбиции и желание быть заметным / расти;
@@ -616,7 +616,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,6 +655,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Onest"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -715,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -729,7 +735,7 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
@@ -789,29 +795,26 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1133,18 +1136,18 @@
     <col min="8" max="8" style="28" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="29" width="11.862142857142858" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="27" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="29" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="30" width="12.005" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="27" width="9.43357142857143" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="27" width="9.43357142857143" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="27" width="9.43357142857143" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="27" width="17.433571428571426" customWidth="1" bestFit="1"/>
     <col min="16" max="16" style="28" width="22.433571428571426" customWidth="1" bestFit="1"/>
     <col min="17" max="17" style="27" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="30" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="31" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="31" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="32" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="31" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="28" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="30" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="30" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="31" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="30" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" customFormat="1" s="1">
@@ -1543,7 +1546,7 @@
       </c>
       <c r="V6" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="413.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="252.75">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2299,12 +2302,7 @@
       <c r="K18" s="10">
         <f>I18*J18</f>
       </c>
-      <c r="L18" s="14">
-        <f>IF($F18="прямая",
-     {3,2,1,0},
-     {0,1,2,3}
-)</f>
-      </c>
+      <c r="L18" s="14"/>
       <c r="M18" s="14">
         <v>2</v>
       </c>
@@ -2317,16 +2315,7 @@
       <c r="P18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q18" s="14">
-        <f>IFS(
-    P18 = $L$1, L18,
-    P18 = $M$1, M18,
-    P18 = $N$1, N18,
-    P18 = $O$1, O18,
-    TRUE, ""
-)
-</f>
-      </c>
+      <c r="Q18" s="14"/>
       <c r="R18" s="15">
         <f>Q18 * I18</f>
       </c>
@@ -2375,12 +2364,7 @@
       <c r="K19" s="10">
         <f>I19*J19</f>
       </c>
-      <c r="L19" s="14">
-        <f>IF($F19="прямая",
-     {3,2,1,0},
-     {0,1,2,3}
-)</f>
-      </c>
+      <c r="L19" s="14"/>
       <c r="M19" s="14">
         <v>2</v>
       </c>
@@ -2393,16 +2377,7 @@
       <c r="P19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q19" s="14">
-        <f>IFS(
-    P19 = $L$1, L19,
-    P19 = $M$1, M19,
-    P19 = $N$1, N19,
-    P19 = $O$1, O19,
-    TRUE, ""
-)
-</f>
-      </c>
+      <c r="Q19" s="14"/>
       <c r="R19" s="15">
         <f>Q19 * I19</f>
       </c>
@@ -2451,12 +2426,7 @@
       <c r="K20" s="10">
         <f>I20*J20</f>
       </c>
-      <c r="L20" s="14">
-        <f>IF($F20="прямая",
-     {3,2,1,0},
-     {0,1,2,3}
-)</f>
-      </c>
+      <c r="L20" s="14"/>
       <c r="M20" s="14">
         <v>1</v>
       </c>
@@ -2469,16 +2439,7 @@
       <c r="P20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q20" s="14">
-        <f>IFS(
-    P20 = $L$1, L20,
-    P20 = $M$1, M20,
-    P20 = $N$1, N20,
-    P20 = $O$1, O20,
-    TRUE, ""
-)
-</f>
-      </c>
+      <c r="Q20" s="14"/>
       <c r="R20" s="15">
         <f>Q20 * I20</f>
       </c>
@@ -2527,12 +2488,7 @@
       <c r="K21" s="10">
         <f>I21*J21</f>
       </c>
-      <c r="L21" s="14">
-        <f>IF($F21="прямая",
-     {3,2,1,0},
-     {0,1,2,3}
-)</f>
-      </c>
+      <c r="L21" s="14"/>
       <c r="M21" s="14">
         <v>2</v>
       </c>
@@ -2545,16 +2501,7 @@
       <c r="P21" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q21" s="14">
-        <f>IFS(
-    P21 = $L$1, L21,
-    P21 = $M$1, M21,
-    P21 = $N$1, N21,
-    P21 = $O$1, O21,
-    TRUE, ""
-)
-</f>
-      </c>
+      <c r="Q21" s="14"/>
       <c r="R21" s="15">
         <f>Q21 * I21</f>
       </c>
@@ -2603,12 +2550,7 @@
       <c r="K22" s="10">
         <f>I22*J22</f>
       </c>
-      <c r="L22" s="14">
-        <f>IF($F22="прямая",
-     {3,2,1,0},
-     {0,1,2,3}
-)</f>
-      </c>
+      <c r="L22" s="14"/>
       <c r="M22" s="14">
         <v>2</v>
       </c>
@@ -2621,16 +2563,7 @@
       <c r="P22" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q22" s="14">
-        <f>IFS(
-    P22 = $L$1, L22,
-    P22 = $M$1, M22,
-    P22 = $N$1, N22,
-    P22 = $O$1, O22,
-    TRUE, ""
-)
-</f>
-      </c>
+      <c r="Q22" s="14"/>
       <c r="R22" s="15">
         <f>Q22 * I22</f>
       </c>
@@ -2807,12 +2740,7 @@
       <c r="K25" s="10">
         <f>I25*J25</f>
       </c>
-      <c r="L25" s="14">
-        <f>IF($F25="прямая",
-     {3,2,1,0},
-     {0,1,2,3}
-)</f>
-      </c>
+      <c r="L25" s="14"/>
       <c r="M25" s="14">
         <v>1</v>
       </c>
@@ -2825,16 +2753,7 @@
       <c r="P25" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q25" s="14">
-        <f>IFS(
-    P25 = $L$1, L25,
-    P25 = $M$1, M25,
-    P25 = $N$1, N25,
-    P25 = $O$1, O25,
-    TRUE, ""
-)
-</f>
-      </c>
+      <c r="Q25" s="14"/>
       <c r="R25" s="15">
         <f>Q25 * I25</f>
       </c>
@@ -2883,12 +2802,7 @@
       <c r="K26" s="10">
         <f>I26*J26</f>
       </c>
-      <c r="L26" s="14">
-        <f>IF($F26="прямая",
-     {3,2,1,0},
-     {0,1,2,3}
-)</f>
-      </c>
+      <c r="L26" s="14"/>
       <c r="M26" s="14">
         <v>1</v>
       </c>
@@ -2901,16 +2815,7 @@
       <c r="P26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q26" s="14">
-        <f>IFS(
-    P26 = $L$1, L26,
-    P26 = $M$1, M26,
-    P26 = $N$1, N26,
-    P26 = $O$1, O26,
-    TRUE, ""
-)
-</f>
-      </c>
+      <c r="Q26" s="14"/>
       <c r="R26" s="15">
         <f>Q26 * I26</f>
       </c>
@@ -2959,12 +2864,7 @@
       <c r="K27" s="10">
         <f>I27*J27</f>
       </c>
-      <c r="L27" s="14">
-        <f>IF($F27="прямая",
-     {3,2,1,0},
-     {0,1,2,3}
-)</f>
-      </c>
+      <c r="L27" s="14"/>
       <c r="M27" s="14">
         <v>2</v>
       </c>
@@ -2977,16 +2877,7 @@
       <c r="P27" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q27" s="14">
-        <f>IFS(
-    P27 = $L$1, L27,
-    P27 = $M$1, M27,
-    P27 = $N$1, N27,
-    P27 = $O$1, O27,
-    TRUE, ""
-)
-</f>
-      </c>
+      <c r="Q27" s="14"/>
       <c r="R27" s="15">
         <f>Q27 * I27</f>
       </c>
@@ -3035,12 +2926,7 @@
       <c r="K28" s="10">
         <f>I28*J28</f>
       </c>
-      <c r="L28" s="14">
-        <f>IF($F28="прямая",
-     {3,2,1,0},
-     {0,1,2,3}
-)</f>
-      </c>
+      <c r="L28" s="14"/>
       <c r="M28" s="14">
         <v>1</v>
       </c>
@@ -3053,16 +2939,7 @@
       <c r="P28" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q28" s="14">
-        <f>IFS(
-    P28 = $L$1, L28,
-    P28 = $M$1, M28,
-    P28 = $N$1, N28,
-    P28 = $O$1, O28,
-    TRUE, ""
-)
-</f>
-      </c>
+      <c r="Q28" s="14"/>
       <c r="R28" s="15">
         <f>Q28 * I28</f>
       </c>
@@ -3111,12 +2988,7 @@
       <c r="K29" s="10">
         <f>I29*J29</f>
       </c>
-      <c r="L29" s="14">
-        <f>IF($F29="прямая",
-     {3,2,1,0},
-     {0,1,2,3}
-)</f>
-      </c>
+      <c r="L29" s="14"/>
       <c r="M29" s="14">
         <v>2</v>
       </c>
@@ -3129,16 +3001,7 @@
       <c r="P29" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q29" s="14">
-        <f>IFS(
-    P29 = $L$1, L29,
-    P29 = $M$1, M29,
-    P29 = $N$1, N29,
-    P29 = $O$1, O29,
-    TRUE, ""
-)
-</f>
-      </c>
+      <c r="Q29" s="14"/>
       <c r="R29" s="15">
         <f>Q29 * I29</f>
       </c>
@@ -3187,12 +3050,7 @@
       <c r="K30" s="10">
         <f>I30*J30</f>
       </c>
-      <c r="L30" s="14">
-        <f>IF($F30="прямая",
-     {3,2,1,0},
-     {0,1,2,3}
-)</f>
-      </c>
+      <c r="L30" s="14"/>
       <c r="M30" s="14">
         <v>1</v>
       </c>
@@ -3205,16 +3063,7 @@
       <c r="P30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q30" s="14">
-        <f>IFS(
-    P30 = $L$1, L30,
-    P30 = $M$1, M30,
-    P30 = $N$1, N30,
-    P30 = $O$1, O30,
-    TRUE, ""
-)
-</f>
-      </c>
+      <c r="Q30" s="14"/>
       <c r="R30" s="15">
         <f>Q30 * I30</f>
       </c>
@@ -3263,12 +3112,7 @@
       <c r="K31" s="10">
         <f>I31*J31</f>
       </c>
-      <c r="L31" s="14">
-        <f>IF($F31="прямая",
-     {3,2,1,0},
-     {0,1,2,3}
-)</f>
-      </c>
+      <c r="L31" s="14"/>
       <c r="M31" s="14">
         <v>2</v>
       </c>
@@ -3281,16 +3125,7 @@
       <c r="P31" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q31" s="14">
-        <f>IFS(
-    P31 = $L$1, L31,
-    P31 = $M$1, M31,
-    P31 = $N$1, N31,
-    P31 = $O$1, O31,
-    TRUE, ""
-)
-</f>
-      </c>
+      <c r="Q31" s="14"/>
       <c r="R31" s="15">
         <f>Q31 * I31</f>
       </c>
@@ -3339,12 +3174,7 @@
       <c r="K32" s="10">
         <f>I32*J32</f>
       </c>
-      <c r="L32" s="14">
-        <f>IF($F32="прямая",
-     {3,2,1,0},
-     {0,1,2,3}
-)</f>
-      </c>
+      <c r="L32" s="14"/>
       <c r="M32" s="14">
         <v>2</v>
       </c>
@@ -3357,16 +3187,7 @@
       <c r="P32" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q32" s="14">
-        <f>IFS(
-    P32 = $L$1, L32,
-    P32 = $M$1, M32,
-    P32 = $N$1, N32,
-    P32 = $O$1, O32,
-    TRUE, ""
-)
-</f>
-      </c>
+      <c r="Q32" s="14"/>
       <c r="R32" s="15">
         <f>Q32 * I32</f>
       </c>
@@ -3415,12 +3236,7 @@
       <c r="K33" s="10">
         <f>I33*J33</f>
       </c>
-      <c r="L33" s="14">
-        <f>IF($F33="прямая",
-     {3,2,1,0},
-     {0,1,2,3}
-)</f>
-      </c>
+      <c r="L33" s="14"/>
       <c r="M33" s="14">
         <v>2</v>
       </c>
@@ -3433,16 +3249,7 @@
       <c r="P33" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q33" s="14">
-        <f>IFS(
-    P33 = $L$1, L33,
-    P33 = $M$1, M33,
-    P33 = $N$1, N33,
-    P33 = $O$1, O33,
-    TRUE, ""
-)
-</f>
-      </c>
+      <c r="Q33" s="14"/>
       <c r="R33" s="15">
         <f>Q33 * I33</f>
       </c>
@@ -3491,12 +3298,7 @@
       <c r="K34" s="10">
         <f>I34*J34</f>
       </c>
-      <c r="L34" s="14">
-        <f>IF($F34="прямая",
-     {3,2,1,0},
-     {0,1,2,3}
-)</f>
-      </c>
+      <c r="L34" s="14"/>
       <c r="M34" s="14">
         <v>2</v>
       </c>
@@ -3509,16 +3311,7 @@
       <c r="P34" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q34" s="14">
-        <f>IFS(
-    P34 = $L$1, L34,
-    P34 = $M$1, M34,
-    P34 = $N$1, N34,
-    P34 = $O$1, O34,
-    TRUE, ""
-)
-</f>
-      </c>
+      <c r="Q34" s="14"/>
       <c r="R34" s="15">
         <f>Q34 * I34</f>
       </c>
@@ -3567,12 +3360,7 @@
       <c r="K35" s="10">
         <f>I35*J35</f>
       </c>
-      <c r="L35" s="14">
-        <f>IF($F35="прямая",
-     {3,2,1,0},
-     {0,1,2,3}
-)</f>
-      </c>
+      <c r="L35" s="14"/>
       <c r="M35" s="14">
         <v>1</v>
       </c>
@@ -3585,16 +3373,7 @@
       <c r="P35" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Q35" s="14">
-        <f>IFS(
-    P35 = $L$1, L35,
-    P35 = $M$1, M35,
-    P35 = $N$1, N35,
-    P35 = $O$1, O35,
-    TRUE, ""
-)
-</f>
-      </c>
+      <c r="Q35" s="14"/>
       <c r="R35" s="15">
         <f>Q35 * I35</f>
       </c>
@@ -3643,12 +3422,7 @@
       <c r="K36" s="10">
         <f>I36*J36</f>
       </c>
-      <c r="L36" s="14">
-        <f>IF($F36="прямая",
-     {3,2,1,0},
-     {0,1,2,3}
-)</f>
-      </c>
+      <c r="L36" s="14"/>
       <c r="M36" s="14">
         <v>2</v>
       </c>
@@ -3661,16 +3435,7 @@
       <c r="P36" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="Q36" s="14">
-        <f>IFS(
-    P36 = $L$1, L36,
-    P36 = $M$1, M36,
-    P36 = $N$1, N36,
-    P36 = $O$1, O36,
-    TRUE, ""
-)
-</f>
-      </c>
+      <c r="Q36" s="14"/>
       <c r="R36" s="15">
         <f>Q36 * I36</f>
       </c>
@@ -3719,12 +3484,7 @@
       <c r="K37" s="10">
         <f>I37*J37</f>
       </c>
-      <c r="L37" s="14">
-        <f>IF($F37="прямая",
-     {3,2,1,0},
-     {0,1,2,3}
-)</f>
-      </c>
+      <c r="L37" s="14"/>
       <c r="M37" s="14">
         <v>1</v>
       </c>
@@ -3737,16 +3497,7 @@
       <c r="P37" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="Q37" s="14">
-        <f>IFS(
-    P37 = $L$1, L37,
-    P37 = $M$1, M37,
-    P37 = $N$1, N37,
-    P37 = $O$1, O37,
-    TRUE, ""
-)
-</f>
-      </c>
+      <c r="Q37" s="14"/>
       <c r="R37" s="15">
         <f>Q37 * I37</f>
       </c>

--- a/src/assessment_client/examples/stat_logic_example.xlsx
+++ b/src/assessment_client/examples/stat_logic_example.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="138">
   <si>
     <t>№</t>
   </si>
@@ -322,7 +322,7 @@
     <t>#27 задание Кейс 1</t>
   </si>
   <si>
-    <t>Ситуационные кейсы</t>
+    <t>Большие кейсы</t>
   </si>
   <si>
     <t xml:space="preserve"># Кейс 1
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>#28 задание Кейс 2</t>
+  </si>
+  <si>
+    <t>Мини кейсы</t>
   </si>
   <si>
     <t># Кейс 2
@@ -616,7 +619,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,6 +658,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Onest"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -798,7 +807,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1684,13 +1693,13 @@
         <v>73</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>25</v>
@@ -1699,7 +1708,7 @@
         <v>47</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I9" s="10">
         <v>0.45</v>
@@ -1723,7 +1732,7 @@
         <v>25</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="14">
         <v>2</v>
@@ -1732,10 +1741,10 @@
         <f>Q9 * I9</f>
       </c>
       <c r="S9" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U9" s="16">
         <v>0</v>
@@ -1747,23 +1756,23 @@
         <v>3</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="8" t="s">
         <v>54</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I10" s="10">
         <v>0.45</v>
@@ -1787,7 +1796,7 @@
         <v>25</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="14">
         <v>3</v>
@@ -1796,10 +1805,10 @@
         <f>Q10 * I10</f>
       </c>
       <c r="S10" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U10" s="16">
         <v>0</v>
@@ -1811,16 +1820,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>25</v>
@@ -1853,7 +1862,7 @@
         <v>25</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q11" s="14">
         <v>0</v>
@@ -1862,7 +1871,7 @@
         <f>Q11 * I11</f>
       </c>
       <c r="S11" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T11" s="8" t="s">
         <v>25</v>
@@ -1877,16 +1886,16 @@
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>25</v>
@@ -1919,7 +1928,7 @@
         <v>25</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q12" s="14">
         <v>0</v>
@@ -1928,7 +1937,7 @@
         <f>Q12 * I12</f>
       </c>
       <c r="S12" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T12" s="8" t="s">
         <v>25</v>
@@ -1943,16 +1952,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>25</v>
@@ -1985,7 +1994,7 @@
         <v>25</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="14">
         <v>0</v>
@@ -1994,7 +2003,7 @@
         <f>Q13 * I13</f>
       </c>
       <c r="S13" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T13" s="8" t="s">
         <v>25</v>
@@ -2009,16 +2018,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>25</v>
@@ -2051,7 +2060,7 @@
         <v>25</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="14">
         <v>0</v>
@@ -2060,7 +2069,7 @@
         <f>Q14 * I14</f>
       </c>
       <c r="S14" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T14" s="8" t="s">
         <v>25</v>
@@ -2075,16 +2084,16 @@
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>25</v>
@@ -2117,7 +2126,7 @@
         <v>25</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q15" s="14">
         <v>0</v>
@@ -2126,7 +2135,7 @@
         <f>Q15 * I15</f>
       </c>
       <c r="S15" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T15" s="8" t="s">
         <v>25</v>
@@ -2141,16 +2150,16 @@
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>25</v>
@@ -2183,7 +2192,7 @@
         <v>25</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="14">
         <v>0</v>
@@ -2192,7 +2201,7 @@
         <f>Q16 * I16</f>
       </c>
       <c r="S16" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T16" s="8" t="s">
         <v>25</v>
@@ -2207,19 +2216,19 @@
         <v>8</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>40</v>
@@ -2270,22 +2279,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>26</v>
@@ -2335,19 +2344,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>33</v>
@@ -2397,19 +2406,19 @@
         <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>33</v>
@@ -2459,19 +2468,19 @@
         <v>9</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>47</v>
@@ -2521,19 +2530,19 @@
         <v>11</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>26</v>
@@ -2590,14 +2599,14 @@
         <v>23</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I23" s="10">
         <v>0.45</v>
@@ -2630,7 +2639,7 @@
         <f>Q23 * I23</f>
       </c>
       <c r="S23" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="T23" s="8" t="s">
         <v>72</v>
@@ -2645,19 +2654,19 @@
         <v>19</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>26</v>
@@ -2711,19 +2720,19 @@
         <v>16</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>33</v>
@@ -2773,19 +2782,19 @@
         <v>4</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>47</v>
@@ -2835,19 +2844,19 @@
         <v>1</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>26</v>
@@ -2897,19 +2906,19 @@
         <v>7</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>33</v>
@@ -2959,19 +2968,19 @@
         <v>2</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>33</v>
@@ -3021,19 +3030,19 @@
         <v>18</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>61</v>
@@ -3083,19 +3092,19 @@
         <v>10</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>54</v>
@@ -3145,19 +3154,19 @@
         <v>5</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>61</v>
@@ -3207,19 +3216,19 @@
         <v>20</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>54</v>
@@ -3269,19 +3278,19 @@
         <v>13</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>47</v>
@@ -3331,19 +3340,19 @@
         <v>14</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>26</v>
@@ -3393,19 +3402,19 @@
         <v>3</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>40</v>
@@ -3455,19 +3464,19 @@
         <v>17</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>40</v>
